--- a/data/output/FV2310_FV2304/UTILTS/25004.xlsx
+++ b/data/output/FV2310_FV2304/UTILTS/25004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="258">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="258">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -919,6 +919,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U136" totalsRowShown="0">
+  <autoFilter ref="A1:U136"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1208,7 +1238,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6985,5 +7018,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/UTILTS/25004.xlsx
+++ b/data/output/FV2310_FV2304/UTILTS/25004.xlsx
@@ -1308,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1331,6 +1331,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1339,6 +1342,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1779,7 +1785,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2115,7 +2121,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2249,7 +2255,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2437,7 +2443,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2733,7 +2739,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2917,7 +2923,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3277,7 +3283,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3573,7 +3579,7 @@
         <v>216</v>
       </c>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3759,7 +3765,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -3965,7 +3971,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4155,22 +4161,22 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M51" s="5"/>
@@ -4188,31 +4194,31 @@
       <c r="A52" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M52" s="5"/>
@@ -4230,31 +4236,31 @@
       <c r="A53" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8" t="s">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M53" s="5"/>
@@ -4272,31 +4278,31 @@
       <c r="A54" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9" t="s">
+      <c r="J54" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M54" s="5"/>
@@ -4324,27 +4330,27 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11" t="s">
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="V55" s="11"/>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4360,33 +4366,33 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11" t="s">
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V56" s="11"/>
+      <c r="U56" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4402,33 +4408,33 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11" t="s">
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="U57" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V57" s="11"/>
+      <c r="U57" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4444,33 +4450,33 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11" t="s">
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="2" t="s">
@@ -4493,7 +4499,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4683,7 +4689,7 @@
         <v>219</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4861,22 +4867,22 @@
       <c r="B67" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8" t="s">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="K67" s="8" t="s">
+      <c r="K67" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="L67" s="9" t="s">
+      <c r="L67" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M67" s="5"/>
@@ -4894,25 +4900,25 @@
       <c r="A68" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8" t="s">
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="9" t="s">
+      <c r="K68" s="9"/>
+      <c r="L68" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M68" s="5"/>
@@ -4930,27 +4936,27 @@
       <c r="A69" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8" t="s">
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="9" t="s">
+      <c r="K69" s="9"/>
+      <c r="L69" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M69" s="5"/>
@@ -4971,20 +4977,20 @@
       <c r="B70" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8" t="s">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K70" s="8"/>
-      <c r="L70" s="9" t="s">
+      <c r="K70" s="9"/>
+      <c r="L70" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M70" s="5"/>
@@ -5002,25 +5008,25 @@
       <c r="A71" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="9" t="s">
+      <c r="K71" s="9"/>
+      <c r="L71" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M71" s="5"/>
@@ -5038,27 +5044,27 @@
       <c r="A72" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8" t="s">
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="K72" s="8"/>
-      <c r="L72" s="9" t="s">
+      <c r="K72" s="9"/>
+      <c r="L72" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M72" s="5"/>
@@ -5076,29 +5082,29 @@
       <c r="A73" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8" t="s">
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J73" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="9" t="s">
+      <c r="J73" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K73" s="9"/>
+      <c r="L73" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M73" s="5"/>
@@ -5126,25 +5132,25 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11" t="s">
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="V74" s="11" t="s">
+      <c r="V74" s="13" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5162,27 +5168,27 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11" t="s">
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="V75" s="11"/>
+      <c r="V75" s="13"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -5198,33 +5204,33 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="10" t="s">
+      <c r="L76" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M76" s="11" t="s">
+      <c r="M76" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="N76" s="11" t="s">
+      <c r="N76" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O76" s="11" t="s">
+      <c r="O76" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P76" s="11" t="s">
+      <c r="P76" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11" t="s">
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11" t="s">
+      <c r="S76" s="13"/>
+      <c r="T76" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="U76" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V76" s="11"/>
+      <c r="U76" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V76" s="13"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -5240,25 +5246,25 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="10" t="s">
+      <c r="L77" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M77" s="11" t="s">
+      <c r="M77" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="N77" s="11" t="s">
+      <c r="N77" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11" t="s">
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="V77" s="11"/>
+      <c r="V77" s="13"/>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5" t="s">
@@ -5274,27 +5280,27 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="10" t="s">
+      <c r="L78" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M78" s="11" t="s">
+      <c r="M78" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="N78" s="11" t="s">
+      <c r="N78" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O78" s="11" t="s">
+      <c r="O78" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11" t="s">
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="V78" s="11"/>
+      <c r="V78" s="13"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="5" t="s">
@@ -5310,33 +5316,33 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="10" t="s">
+      <c r="L79" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M79" s="11" t="s">
+      <c r="M79" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="N79" s="11" t="s">
+      <c r="N79" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O79" s="11" t="s">
+      <c r="O79" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P79" s="11" t="s">
+      <c r="P79" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11" t="s">
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11" t="s">
+      <c r="S79" s="13"/>
+      <c r="T79" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="U79" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V79" s="11"/>
+      <c r="U79" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V79" s="13"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
@@ -5352,31 +5358,31 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="10" t="s">
+      <c r="L80" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M80" s="11" t="s">
+      <c r="M80" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="N80" s="11" t="s">
+      <c r="N80" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O80" s="11" t="s">
+      <c r="O80" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P80" s="11" t="s">
+      <c r="P80" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11" t="s">
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="U80" s="11" t="s">
+      <c r="U80" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="V80" s="11" t="s">
+      <c r="V80" s="13" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5403,7 +5409,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5595,22 +5601,22 @@
       <c r="B85" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8" t="s">
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="9" t="s">
+      <c r="K85" s="9"/>
+      <c r="L85" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M85" s="5"/>
@@ -5628,31 +5634,31 @@
       <c r="A86" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8" t="s">
+      <c r="F86" s="9"/>
+      <c r="G86" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8" t="s">
+      <c r="H86" s="9"/>
+      <c r="I86" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J86" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="9" t="s">
+      <c r="J86" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M86" s="5"/>
@@ -5670,31 +5676,31 @@
       <c r="A87" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8" t="s">
+      <c r="F87" s="9"/>
+      <c r="G87" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8" t="s">
+      <c r="H87" s="9"/>
+      <c r="I87" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="9" t="s">
+      <c r="J87" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K87" s="9"/>
+      <c r="L87" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M87" s="5"/>
@@ -5712,33 +5718,33 @@
       <c r="A88" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8" t="s">
+      <c r="F88" s="9"/>
+      <c r="G88" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8" t="s">
+      <c r="H88" s="9"/>
+      <c r="I88" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="K88" s="8" t="s">
+      <c r="K88" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="L88" s="9" t="s">
+      <c r="L88" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M88" s="5"/>
@@ -5766,27 +5772,27 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="10" t="s">
+      <c r="L89" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M89" s="11" t="s">
+      <c r="M89" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="N89" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O89" s="11" t="s">
+      <c r="O89" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11" t="s">
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="V89" s="11"/>
+      <c r="V89" s="13"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -5802,33 +5808,33 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="10" t="s">
+      <c r="L90" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M90" s="11" t="s">
+      <c r="M90" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O90" s="11" t="s">
+      <c r="O90" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="P90" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11" t="s">
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11" t="s">
+      <c r="S90" s="13"/>
+      <c r="T90" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="U90" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V90" s="11"/>
+      <c r="U90" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V90" s="13"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -5844,33 +5850,33 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="10" t="s">
+      <c r="L91" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M91" s="11" t="s">
+      <c r="M91" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="N91" s="11" t="s">
+      <c r="N91" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O91" s="11" t="s">
+      <c r="O91" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P91" s="11" t="s">
+      <c r="P91" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11" t="s">
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11" t="s">
+      <c r="S91" s="13"/>
+      <c r="T91" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="U91" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V91" s="11"/>
+      <c r="U91" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V91" s="13"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="5" t="s">
@@ -5886,33 +5892,33 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="10" t="s">
+      <c r="L92" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M92" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O92" s="11" t="s">
+      <c r="O92" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P92" s="11" t="s">
+      <c r="P92" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11" t="s">
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11" t="s">
+      <c r="S92" s="13"/>
+      <c r="T92" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="U92" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V92" s="11"/>
+      <c r="U92" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V92" s="13"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="2" t="s">
@@ -5939,7 +5945,7 @@
         <v>222</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6129,24 +6135,24 @@
       <c r="B97" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8" t="s">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="K97" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="L97" s="9" t="s">
+      <c r="L97" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M97" s="5"/>
@@ -6164,31 +6170,31 @@
       <c r="A98" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8" t="s">
+      <c r="F98" s="9"/>
+      <c r="G98" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8" t="s">
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J98" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="J98" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M98" s="5"/>
@@ -6206,31 +6212,31 @@
       <c r="A99" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8" t="s">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J99" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="9" t="s">
+      <c r="J99" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M99" s="5"/>
@@ -6248,31 +6254,31 @@
       <c r="A100" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8" t="s">
+      <c r="F100" s="9"/>
+      <c r="G100" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="J100" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M100" s="5"/>
@@ -6300,27 +6306,27 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M101" s="11" t="s">
+      <c r="M101" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="N101" s="11" t="s">
+      <c r="N101" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O101" s="11" t="s">
+      <c r="O101" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11"/>
-      <c r="U101" s="11" t="s">
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="V101" s="11" t="s">
+      <c r="V101" s="13" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6338,33 +6344,33 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M102" s="11" t="s">
+      <c r="M102" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="N102" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P102" s="11" t="s">
+      <c r="P102" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11" t="s">
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11" t="s">
+      <c r="S102" s="13"/>
+      <c r="T102" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="U102" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V102" s="11"/>
+      <c r="U102" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V102" s="13"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -6380,33 +6386,33 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M103" s="11" t="s">
+      <c r="M103" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="N103" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="O103" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P103" s="11" t="s">
+      <c r="P103" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="11" t="s">
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11" t="s">
+      <c r="S103" s="13"/>
+      <c r="T103" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="U103" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V103" s="11"/>
+      <c r="U103" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V103" s="13"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -6422,33 +6428,33 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="10" t="s">
+      <c r="L104" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M104" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="N104" s="11" t="s">
+      <c r="N104" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="O104" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P104" s="11" t="s">
+      <c r="P104" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11" t="s">
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11" t="s">
+      <c r="S104" s="13"/>
+      <c r="T104" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="U104" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V104" s="11"/>
+      <c r="U104" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V104" s="13"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="2" t="s">
@@ -6475,7 +6481,7 @@
         <v>224</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -6881,22 +6887,22 @@
       <c r="B113" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8" t="s">
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="K113" s="8" t="s">
+      <c r="K113" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="L113" s="9" t="s">
+      <c r="L113" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M113" s="5"/>
@@ -6914,25 +6920,25 @@
       <c r="A114" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8" t="s">
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K114" s="8"/>
-      <c r="L114" s="9" t="s">
+      <c r="K114" s="9"/>
+      <c r="L114" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M114" s="5"/>
@@ -6950,27 +6956,27 @@
       <c r="A115" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8" t="s">
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K115" s="8"/>
-      <c r="L115" s="9" t="s">
+      <c r="K115" s="9"/>
+      <c r="L115" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M115" s="5"/>
@@ -6991,22 +6997,22 @@
       <c r="B116" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8" t="s">
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K116" s="8"/>
-      <c r="L116" s="9" t="s">
+      <c r="K116" s="9"/>
+      <c r="L116" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M116" s="5"/>
@@ -7024,31 +7030,31 @@
       <c r="A117" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8" t="s">
+      <c r="F117" s="9"/>
+      <c r="G117" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8" t="s">
+      <c r="H117" s="9"/>
+      <c r="I117" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J117" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K117" s="8"/>
-      <c r="L117" s="9" t="s">
+      <c r="J117" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K117" s="9"/>
+      <c r="L117" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M117" s="5"/>
@@ -7066,29 +7072,29 @@
       <c r="A118" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8" t="s">
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J118" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K118" s="8"/>
-      <c r="L118" s="9" t="s">
+      <c r="J118" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K118" s="9"/>
+      <c r="L118" s="10" t="s">
         <v>228</v>
       </c>
       <c r="M118" s="5"/>
@@ -7116,25 +7122,25 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
-      <c r="L119" s="10" t="s">
+      <c r="L119" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M119" s="11" t="s">
+      <c r="M119" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="N119" s="11" t="s">
+      <c r="N119" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O119" s="11"/>
-      <c r="P119" s="11"/>
-      <c r="Q119" s="11"/>
-      <c r="R119" s="11"/>
-      <c r="S119" s="11"/>
-      <c r="T119" s="11"/>
-      <c r="U119" s="11" t="s">
+      <c r="O119" s="13"/>
+      <c r="P119" s="13"/>
+      <c r="Q119" s="13"/>
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="13"/>
+      <c r="U119" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="V119" s="11" t="s">
+      <c r="V119" s="13" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7152,27 +7158,27 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
-      <c r="L120" s="10" t="s">
+      <c r="L120" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M120" s="11" t="s">
+      <c r="M120" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="N120" s="11" t="s">
+      <c r="N120" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O120" s="11" t="s">
+      <c r="O120" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P120" s="11"/>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="11"/>
-      <c r="S120" s="11"/>
-      <c r="T120" s="11"/>
-      <c r="U120" s="11" t="s">
+      <c r="P120" s="13"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="13"/>
+      <c r="U120" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="V120" s="11"/>
+      <c r="V120" s="13"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
@@ -7188,33 +7194,33 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
-      <c r="L121" s="10" t="s">
+      <c r="L121" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M121" s="11" t="s">
+      <c r="M121" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="N121" s="11" t="s">
+      <c r="N121" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O121" s="11" t="s">
+      <c r="O121" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P121" s="11" t="s">
+      <c r="P121" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="11" t="s">
+      <c r="Q121" s="13"/>
+      <c r="R121" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="S121" s="11"/>
-      <c r="T121" s="11" t="s">
+      <c r="S121" s="13"/>
+      <c r="T121" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="U121" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V121" s="11"/>
+      <c r="U121" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V121" s="13"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="5" t="s">
@@ -7230,27 +7236,27 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
-      <c r="L122" s="10" t="s">
+      <c r="L122" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M122" s="11" t="s">
+      <c r="M122" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="N122" s="11" t="s">
+      <c r="N122" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O122" s="11" t="s">
+      <c r="O122" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P122" s="11"/>
-      <c r="Q122" s="11"/>
-      <c r="R122" s="11"/>
-      <c r="S122" s="11"/>
-      <c r="T122" s="11"/>
-      <c r="U122" s="11" t="s">
+      <c r="P122" s="13"/>
+      <c r="Q122" s="13"/>
+      <c r="R122" s="13"/>
+      <c r="S122" s="13"/>
+      <c r="T122" s="13"/>
+      <c r="U122" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="V122" s="11"/>
+      <c r="V122" s="13"/>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="5" t="s">
@@ -7266,33 +7272,33 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
-      <c r="L123" s="10" t="s">
+      <c r="L123" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M123" s="11" t="s">
+      <c r="M123" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="N123" s="11" t="s">
+      <c r="N123" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O123" s="11" t="s">
+      <c r="O123" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P123" s="11" t="s">
+      <c r="P123" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q123" s="11"/>
-      <c r="R123" s="11" t="s">
+      <c r="Q123" s="13"/>
+      <c r="R123" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="S123" s="11"/>
-      <c r="T123" s="11" t="s">
+      <c r="S123" s="13"/>
+      <c r="T123" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="U123" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V123" s="11"/>
+      <c r="U123" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V123" s="13"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -7308,31 +7314,31 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
-      <c r="L124" s="10" t="s">
+      <c r="L124" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M124" s="11" t="s">
+      <c r="M124" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="N124" s="11" t="s">
+      <c r="N124" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O124" s="11" t="s">
+      <c r="O124" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P124" s="11" t="s">
+      <c r="P124" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q124" s="11"/>
-      <c r="R124" s="11"/>
-      <c r="S124" s="11"/>
-      <c r="T124" s="11" t="s">
+      <c r="Q124" s="13"/>
+      <c r="R124" s="13"/>
+      <c r="S124" s="13"/>
+      <c r="T124" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="U124" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V124" s="11"/>
+      <c r="U124" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="V124" s="13"/>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="2" t="s">
@@ -7355,7 +7361,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -7539,7 +7545,7 @@
         <v>222</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -7781,7 +7787,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N134" s="2"/>
